--- a/+Analysis/Behavior_Older_Adults.xlsx
+++ b/+Analysis/Behavior_Older_Adults.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jool8931/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Git\+Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{11DA54B3-ABB3-8346-BEBD-98D5149A2EBF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF34D3A-58B3-4CF9-97D8-C2AC7B15D971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="behzad" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
   <definedNames>
     <definedName name="SPSS">behzad!$A$1:$FL$45</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -526,9 +539,6 @@
     <t>trainedgain</t>
   </si>
   <si>
-    <t>VAR00004</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -696,15 +706,18 @@
   <si>
     <t>bVISMEM</t>
   </si>
+  <si>
+    <t>transferedgain</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd\-mm\-\y\y\y\y"/>
-    <numFmt numFmtId="167" formatCode="#\.00"/>
-    <numFmt numFmtId="168" formatCode="#\.0"/>
+    <numFmt numFmtId="165" formatCode="#\.00"/>
+    <numFmt numFmtId="166" formatCode="#\.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -740,11 +753,11 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -752,7 +765,7 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -760,12 +773,12 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -788,7 +801,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1083,63 +1096,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FX45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FA1" workbookViewId="0">
-      <selection activeCell="GB27" sqref="GB27"/>
+    <sheetView tabSelected="1" topLeftCell="FB1" workbookViewId="0">
+      <selection activeCell="FL1" sqref="FL1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="8.59765625" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
-    <col min="4" max="5" width="8.59765625" customWidth="1"/>
-    <col min="6" max="6" width="15.59765625" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" customWidth="1"/>
-    <col min="8" max="8" width="13.59765625" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" customWidth="1"/>
-    <col min="10" max="10" width="13.59765625" customWidth="1"/>
-    <col min="11" max="11" width="11.59765625" customWidth="1"/>
-    <col min="12" max="12" width="24.59765625" customWidth="1"/>
-    <col min="13" max="15" width="8.59765625" customWidth="1"/>
-    <col min="16" max="16" width="14.59765625" customWidth="1"/>
-    <col min="17" max="19" width="23.59765625" customWidth="1"/>
-    <col min="20" max="22" width="12.59765625" customWidth="1"/>
-    <col min="23" max="23" width="19.59765625" customWidth="1"/>
-    <col min="24" max="26" width="14.59765625" customWidth="1"/>
-    <col min="27" max="27" width="24.59765625" customWidth="1"/>
-    <col min="28" max="30" width="19.59765625" customWidth="1"/>
-    <col min="31" max="31" width="20.59765625" customWidth="1"/>
-    <col min="32" max="34" width="17.59765625" customWidth="1"/>
-    <col min="35" max="37" width="15.59765625" customWidth="1"/>
-    <col min="38" max="38" width="100.59765625" customWidth="1"/>
-    <col min="39" max="39" width="22.59765625" customWidth="1"/>
-    <col min="40" max="42" width="19.59765625" customWidth="1"/>
-    <col min="43" max="45" width="17.59765625" customWidth="1"/>
-    <col min="46" max="48" width="8.59765625" customWidth="1"/>
-    <col min="49" max="51" width="9.59765625" customWidth="1"/>
-    <col min="52" max="52" width="21.59765625" customWidth="1"/>
-    <col min="53" max="57" width="16.59765625" customWidth="1"/>
-    <col min="58" max="59" width="18.59765625" customWidth="1"/>
-    <col min="60" max="61" width="23.59765625" customWidth="1"/>
-    <col min="62" max="62" width="18.59765625" customWidth="1"/>
-    <col min="63" max="63" width="100.59765625" customWidth="1"/>
-    <col min="64" max="67" width="8.59765625" customWidth="1"/>
-    <col min="68" max="69" width="10.59765625" customWidth="1"/>
-    <col min="70" max="75" width="8.59765625" customWidth="1"/>
-    <col min="76" max="77" width="9.59765625" customWidth="1"/>
-    <col min="78" max="79" width="11.59765625" customWidth="1"/>
-    <col min="80" max="82" width="13.59765625" customWidth="1"/>
-    <col min="83" max="91" width="8.59765625" customWidth="1"/>
-    <col min="92" max="122" width="9.59765625" customWidth="1"/>
-    <col min="123" max="165" width="8.59765625" customWidth="1"/>
-    <col min="166" max="166" width="10.59765625" customWidth="1"/>
-    <col min="167" max="167" width="11.59765625" customWidth="1"/>
-    <col min="168" max="168" width="8.59765625" customWidth="1"/>
+    <col min="1" max="2" width="8.625" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="5" width="8.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="11.625" customWidth="1"/>
+    <col min="12" max="12" width="24.625" customWidth="1"/>
+    <col min="13" max="15" width="8.625" customWidth="1"/>
+    <col min="16" max="16" width="14.625" customWidth="1"/>
+    <col min="17" max="19" width="23.625" customWidth="1"/>
+    <col min="20" max="22" width="12.625" customWidth="1"/>
+    <col min="23" max="23" width="19.625" customWidth="1"/>
+    <col min="24" max="26" width="14.625" customWidth="1"/>
+    <col min="27" max="27" width="24.625" customWidth="1"/>
+    <col min="28" max="30" width="19.625" customWidth="1"/>
+    <col min="31" max="31" width="20.625" customWidth="1"/>
+    <col min="32" max="34" width="17.625" customWidth="1"/>
+    <col min="35" max="37" width="15.625" customWidth="1"/>
+    <col min="38" max="38" width="100.625" customWidth="1"/>
+    <col min="39" max="39" width="22.625" customWidth="1"/>
+    <col min="40" max="42" width="19.625" customWidth="1"/>
+    <col min="43" max="45" width="17.625" customWidth="1"/>
+    <col min="46" max="48" width="8.625" customWidth="1"/>
+    <col min="49" max="51" width="9.625" customWidth="1"/>
+    <col min="52" max="52" width="21.625" customWidth="1"/>
+    <col min="53" max="57" width="16.625" customWidth="1"/>
+    <col min="58" max="59" width="18.625" customWidth="1"/>
+    <col min="60" max="61" width="23.625" customWidth="1"/>
+    <col min="62" max="62" width="18.625" customWidth="1"/>
+    <col min="63" max="63" width="100.625" customWidth="1"/>
+    <col min="64" max="67" width="8.625" customWidth="1"/>
+    <col min="68" max="69" width="10.625" customWidth="1"/>
+    <col min="70" max="75" width="8.625" customWidth="1"/>
+    <col min="76" max="77" width="9.625" customWidth="1"/>
+    <col min="78" max="79" width="11.625" customWidth="1"/>
+    <col min="80" max="82" width="13.625" customWidth="1"/>
+    <col min="83" max="91" width="8.625" customWidth="1"/>
+    <col min="92" max="122" width="9.625" customWidth="1"/>
+    <col min="123" max="165" width="8.625" customWidth="1"/>
+    <col min="166" max="166" width="10.625" customWidth="1"/>
+    <col min="167" max="167" width="11.625" customWidth="1"/>
+    <col min="168" max="168" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1642,37 +1655,37 @@
         <v>166</v>
       </c>
       <c r="FL1" s="1" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="FN1" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="FO1" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="FO1" s="8" t="s">
-        <v>217</v>
       </c>
       <c r="FP1" s="9"/>
       <c r="FQ1" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="FR1" s="8" t="s">
         <v>218</v>
-      </c>
-      <c r="FR1" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="FS1" s="9"/>
       <c r="FT1" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="FU1" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="FU1" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="FV1" s="9"/>
       <c r="FW1" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="FX1" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="FX1" s="8" t="s">
-        <v>223</v>
-      </c>
     </row>
-    <row r="2" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -1680,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D2" s="3">
         <v>64</v>
@@ -1705,7 +1718,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M2" s="3">
         <v>13</v>
@@ -1730,7 +1743,7 @@
       </c>
       <c r="V2" s="2"/>
       <c r="W2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X2" s="3">
         <v>5</v>
@@ -1740,7 +1753,7 @@
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB2" s="3">
         <v>10</v>
@@ -1765,10 +1778,10 @@
       </c>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN2" s="3">
         <v>24</v>
@@ -1799,7 +1812,7 @@
       </c>
       <c r="AY2" s="2"/>
       <c r="AZ2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA2" s="3">
         <v>31</v>
@@ -1827,10 +1840,10 @@
         <v>24</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BL2" s="3">
         <v>4</v>
@@ -2140,7 +2153,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>9</v>
       </c>
@@ -2148,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D3" s="3">
         <v>76</v>
@@ -2173,7 +2186,7 @@
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M3" s="3">
         <v>10</v>
@@ -2198,7 +2211,7 @@
       </c>
       <c r="V3" s="2"/>
       <c r="W3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X3" s="3">
         <v>5</v>
@@ -2208,7 +2221,7 @@
       </c>
       <c r="Z3" s="2"/>
       <c r="AA3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB3" s="3">
         <v>11</v>
@@ -2231,10 +2244,10 @@
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN3" s="3">
         <v>47</v>
@@ -2265,7 +2278,7 @@
       </c>
       <c r="AY3" s="2"/>
       <c r="AZ3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA3" s="3">
         <v>35</v>
@@ -2293,10 +2306,10 @@
         <v>24</v>
       </c>
       <c r="BJ3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK3" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL3" s="3">
         <v>8</v>
@@ -2636,7 +2649,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>15</v>
       </c>
@@ -2644,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" s="3">
         <v>75</v>
@@ -2669,7 +2682,7 @@
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M4" s="3">
         <v>10</v>
@@ -2694,7 +2707,7 @@
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X4" s="3">
         <v>6</v>
@@ -2704,7 +2717,7 @@
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB4" s="3">
         <v>10</v>
@@ -2729,10 +2742,10 @@
       </c>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN4" s="3">
         <v>60</v>
@@ -2763,7 +2776,7 @@
       </c>
       <c r="AY4" s="2"/>
       <c r="AZ4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA4" s="3">
         <v>22</v>
@@ -2791,10 +2804,10 @@
         <v>24</v>
       </c>
       <c r="BJ4" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK4" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BL4" s="3">
         <v>10</v>
@@ -3138,7 +3151,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>16</v>
       </c>
@@ -3146,7 +3159,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D5" s="3">
         <v>67</v>
@@ -3171,7 +3184,7 @@
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M5" s="3">
         <v>14</v>
@@ -3196,7 +3209,7 @@
       </c>
       <c r="V5" s="2"/>
       <c r="W5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X5" s="3">
         <v>2</v>
@@ -3206,7 +3219,7 @@
       </c>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB5" s="3">
         <v>12</v>
@@ -3231,10 +3244,10 @@
       </c>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN5" s="3">
         <v>27</v>
@@ -3265,7 +3278,7 @@
       </c>
       <c r="AY5" s="2"/>
       <c r="AZ5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA5" s="3">
         <v>39</v>
@@ -3293,10 +3306,10 @@
         <v>24</v>
       </c>
       <c r="BJ5" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK5" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BL5" s="3">
         <v>9</v>
@@ -3640,7 +3653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>22</v>
       </c>
@@ -3648,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D6" s="3">
         <v>72</v>
@@ -3673,7 +3686,7 @@
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M6" s="3">
         <v>11</v>
@@ -3698,7 +3711,7 @@
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X6" s="3">
         <v>1</v>
@@ -3708,7 +3721,7 @@
       </c>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB6" s="3">
         <v>9</v>
@@ -3733,10 +3746,10 @@
       </c>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN6" s="3">
         <v>59</v>
@@ -3767,7 +3780,7 @@
       </c>
       <c r="AY6" s="2"/>
       <c r="AZ6" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA6" s="3">
         <v>39</v>
@@ -3795,10 +3808,10 @@
         <v>24</v>
       </c>
       <c r="BJ6" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK6" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BL6" s="3">
         <v>10</v>
@@ -4126,7 +4139,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>25</v>
       </c>
@@ -4134,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="3">
         <v>76</v>
@@ -4159,7 +4172,7 @@
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M7" s="3">
         <v>12</v>
@@ -4184,7 +4197,7 @@
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X7" s="3">
         <v>8</v>
@@ -4194,7 +4207,7 @@
       </c>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB7" s="3">
         <v>7</v>
@@ -4219,10 +4232,10 @@
       </c>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN7" s="3">
         <v>86</v>
@@ -4253,7 +4266,7 @@
       </c>
       <c r="AY7" s="2"/>
       <c r="AZ7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA7" s="3">
         <v>28</v>
@@ -4281,10 +4294,10 @@
         <v>24</v>
       </c>
       <c r="BJ7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL7" s="3">
         <v>10</v>
@@ -4628,7 +4641,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>28</v>
       </c>
@@ -4636,7 +4649,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="3">
         <v>79</v>
@@ -4661,7 +4674,7 @@
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M8" s="3">
         <v>6</v>
@@ -4686,7 +4699,7 @@
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X8" s="3">
         <v>3</v>
@@ -4696,7 +4709,7 @@
       </c>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB8" s="3">
         <v>8</v>
@@ -4721,10 +4734,10 @@
       </c>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN8" s="3">
         <v>64</v>
@@ -4755,7 +4768,7 @@
       </c>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA8" s="3">
         <v>34</v>
@@ -4783,10 +4796,10 @@
         <v>24</v>
       </c>
       <c r="BJ8" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK8" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL8" s="3">
         <v>10</v>
@@ -5128,7 +5141,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>33</v>
       </c>
@@ -5136,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D9" s="3">
         <v>63</v>
@@ -5161,7 +5174,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M9" s="3">
         <v>6</v>
@@ -5186,7 +5199,7 @@
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X9" s="3">
         <v>5</v>
@@ -5196,7 +5209,7 @@
       </c>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB9" s="3">
         <v>9</v>
@@ -5221,10 +5234,10 @@
       </c>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN9" s="3">
         <v>74</v>
@@ -5255,7 +5268,7 @@
       </c>
       <c r="AY9" s="2"/>
       <c r="AZ9" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA9" s="3">
         <v>41</v>
@@ -5283,10 +5296,10 @@
         <v>24</v>
       </c>
       <c r="BJ9" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK9" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL9" s="3">
         <v>2</v>
@@ -5628,7 +5641,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>34</v>
       </c>
@@ -5636,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" s="3">
         <v>75</v>
@@ -5661,7 +5674,7 @@
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M10" s="3">
         <v>12</v>
@@ -5686,7 +5699,7 @@
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X10" s="3">
         <v>5</v>
@@ -5696,7 +5709,7 @@
       </c>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB10" s="3">
         <v>12</v>
@@ -5721,10 +5734,10 @@
       </c>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN10" s="3">
         <v>38</v>
@@ -5755,7 +5768,7 @@
       </c>
       <c r="AY10" s="2"/>
       <c r="AZ10" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA10" s="3">
         <v>41</v>
@@ -5783,10 +5796,10 @@
         <v>24</v>
       </c>
       <c r="BJ10" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK10" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL10" s="3">
         <v>3</v>
@@ -6130,7 +6143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>38</v>
       </c>
@@ -6138,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" s="3">
         <v>70</v>
@@ -6163,7 +6176,7 @@
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M11" s="3">
         <v>8</v>
@@ -6188,7 +6201,7 @@
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X11" s="3">
         <v>7</v>
@@ -6198,7 +6211,7 @@
       </c>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB11" s="3">
         <v>12</v>
@@ -6223,10 +6236,10 @@
       </c>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM11" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN11" s="3">
         <v>73</v>
@@ -6257,7 +6270,7 @@
       </c>
       <c r="AY11" s="2"/>
       <c r="AZ11" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA11" s="3">
         <v>32</v>
@@ -6285,10 +6298,10 @@
         <v>24</v>
       </c>
       <c r="BJ11" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK11" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL11" s="3">
         <v>3</v>
@@ -6616,7 +6629,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>42</v>
       </c>
@@ -6624,7 +6637,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D12" s="3">
         <v>71</v>
@@ -6649,7 +6662,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M12" s="3">
         <v>11</v>
@@ -6674,7 +6687,7 @@
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X12" s="3">
         <v>7</v>
@@ -6684,7 +6697,7 @@
       </c>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB12" s="3">
         <v>14</v>
@@ -6709,10 +6722,10 @@
       </c>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN12" s="3">
         <v>46</v>
@@ -6743,7 +6756,7 @@
       </c>
       <c r="AY12" s="2"/>
       <c r="AZ12" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA12" s="3">
         <v>37</v>
@@ -6771,10 +6784,10 @@
         <v>24</v>
       </c>
       <c r="BJ12" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK12" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL12" s="3">
         <v>7</v>
@@ -7118,7 +7131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>43</v>
       </c>
@@ -7126,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D13" s="3">
         <v>66</v>
@@ -7151,7 +7164,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M13" s="3">
         <v>16</v>
@@ -7176,7 +7189,7 @@
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X13" s="3">
         <v>7</v>
@@ -7186,7 +7199,7 @@
       </c>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB13" s="3">
         <v>15</v>
@@ -7211,10 +7224,10 @@
       </c>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN13" s="3">
         <v>60</v>
@@ -7245,7 +7258,7 @@
       </c>
       <c r="AY13" s="2"/>
       <c r="AZ13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA13" s="3">
         <v>38</v>
@@ -7273,10 +7286,10 @@
         <v>24</v>
       </c>
       <c r="BJ13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK13" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL13" s="3">
         <v>7</v>
@@ -7620,7 +7633,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>44</v>
       </c>
@@ -7628,7 +7641,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D14" s="3">
         <v>66</v>
@@ -7653,7 +7666,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M14" s="3">
         <v>12</v>
@@ -7678,7 +7691,7 @@
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X14" s="3">
         <v>4</v>
@@ -7688,7 +7701,7 @@
       </c>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB14" s="3">
         <v>12</v>
@@ -7713,10 +7726,10 @@
       </c>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM14" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN14" s="3">
         <v>38</v>
@@ -7747,7 +7760,7 @@
       </c>
       <c r="AY14" s="2"/>
       <c r="AZ14" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA14" s="3">
         <v>45</v>
@@ -7775,10 +7788,10 @@
         <v>24</v>
       </c>
       <c r="BJ14" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK14" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL14" s="3">
         <v>3</v>
@@ -8122,7 +8135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>45</v>
       </c>
@@ -8130,7 +8143,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D15" s="3">
         <v>71</v>
@@ -8155,7 +8168,7 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M15" s="3">
         <v>8</v>
@@ -8180,7 +8193,7 @@
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X15" s="3">
         <v>1</v>
@@ -8190,7 +8203,7 @@
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB15" s="3">
         <v>13</v>
@@ -8215,10 +8228,10 @@
       </c>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN15" s="3">
         <v>63</v>
@@ -8249,7 +8262,7 @@
       </c>
       <c r="AY15" s="2"/>
       <c r="AZ15" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA15" s="3">
         <v>43</v>
@@ -8277,10 +8290,10 @@
         <v>24</v>
       </c>
       <c r="BJ15" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK15" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL15" s="3">
         <v>5</v>
@@ -8624,7 +8637,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>46</v>
       </c>
@@ -8632,7 +8645,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D16" s="3">
         <v>67</v>
@@ -8657,7 +8670,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M16" s="3">
         <v>6</v>
@@ -8682,7 +8695,7 @@
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X16" s="3">
         <v>6</v>
@@ -8692,7 +8705,7 @@
       </c>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB16" s="3">
         <v>13</v>
@@ -8717,10 +8730,10 @@
       </c>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN16" s="3">
         <v>31</v>
@@ -8751,7 +8764,7 @@
       </c>
       <c r="AY16" s="2"/>
       <c r="AZ16" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA16" s="3">
         <v>32</v>
@@ -8779,10 +8792,10 @@
         <v>24</v>
       </c>
       <c r="BJ16" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK16" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL16" s="3">
         <v>5</v>
@@ -9126,7 +9139,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>47</v>
       </c>
@@ -9134,7 +9147,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D17" s="3">
         <v>69</v>
@@ -9159,7 +9172,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M17" s="3">
         <v>11</v>
@@ -9184,7 +9197,7 @@
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X17" s="3">
         <v>1</v>
@@ -9194,7 +9207,7 @@
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB17" s="3">
         <v>11</v>
@@ -9219,10 +9232,10 @@
       </c>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM17" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN17" s="3">
         <v>47</v>
@@ -9253,7 +9266,7 @@
       </c>
       <c r="AY17" s="2"/>
       <c r="AZ17" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA17" s="3">
         <v>30</v>
@@ -9281,10 +9294,10 @@
         <v>24</v>
       </c>
       <c r="BJ17" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK17" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL17" s="3">
         <v>10</v>
@@ -9628,7 +9641,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>49</v>
       </c>
@@ -9636,7 +9649,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D18" s="3">
         <v>65</v>
@@ -9661,7 +9674,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M18" s="3">
         <v>14</v>
@@ -9686,7 +9699,7 @@
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X18" s="3">
         <v>5</v>
@@ -9696,7 +9709,7 @@
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB18" s="3">
         <v>12</v>
@@ -9721,10 +9734,10 @@
       </c>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM18" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN18" s="3">
         <v>29</v>
@@ -9755,7 +9768,7 @@
       </c>
       <c r="AY18" s="2"/>
       <c r="AZ18" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA18" s="3">
         <v>34</v>
@@ -9783,10 +9796,10 @@
         <v>23</v>
       </c>
       <c r="BJ18" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK18" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL18" s="3">
         <v>10</v>
@@ -10130,7 +10143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>51</v>
       </c>
@@ -10138,7 +10151,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D19" s="3">
         <v>65</v>
@@ -10163,7 +10176,7 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M19" s="3">
         <v>13</v>
@@ -10188,7 +10201,7 @@
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X19" s="3">
         <v>5</v>
@@ -10198,7 +10211,7 @@
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB19" s="3">
         <v>11</v>
@@ -10223,10 +10236,10 @@
       </c>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM19" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN19" s="3">
         <v>24</v>
@@ -10257,7 +10270,7 @@
       </c>
       <c r="AY19" s="2"/>
       <c r="AZ19" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA19" s="3">
         <v>37</v>
@@ -10285,10 +10298,10 @@
         <v>24</v>
       </c>
       <c r="BJ19" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK19" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL19" s="3">
         <v>9</v>
@@ -10632,7 +10645,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>52</v>
       </c>
@@ -10640,7 +10653,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D20" s="3">
         <v>66</v>
@@ -10665,7 +10678,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M20" s="3">
         <v>11</v>
@@ -10690,7 +10703,7 @@
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X20" s="3">
         <v>3</v>
@@ -10700,7 +10713,7 @@
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB20" s="3">
         <v>13</v>
@@ -10725,10 +10738,10 @@
       </c>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM20" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN20" s="3">
         <v>40</v>
@@ -10759,7 +10772,7 @@
       </c>
       <c r="AY20" s="2"/>
       <c r="AZ20" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA20" s="3">
         <v>43</v>
@@ -10787,10 +10800,10 @@
         <v>23</v>
       </c>
       <c r="BJ20" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK20" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL20" s="3">
         <v>8</v>
@@ -11134,7 +11147,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>54</v>
       </c>
@@ -11142,7 +11155,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D21" s="3">
         <v>65</v>
@@ -11167,7 +11180,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M21" s="3">
         <v>11</v>
@@ -11192,7 +11205,7 @@
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X21" s="3">
         <v>5</v>
@@ -11202,7 +11215,7 @@
       </c>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB21" s="3">
         <v>12</v>
@@ -11227,10 +11240,10 @@
       </c>
       <c r="AK21" s="2"/>
       <c r="AL21" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM21" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN21" s="3">
         <v>29</v>
@@ -11261,7 +11274,7 @@
       </c>
       <c r="AY21" s="2"/>
       <c r="AZ21" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA21" s="3">
         <v>34</v>
@@ -11289,10 +11302,10 @@
         <v>24</v>
       </c>
       <c r="BJ21" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK21" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL21" s="3">
         <v>7</v>
@@ -11636,7 +11649,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>56</v>
       </c>
@@ -11644,7 +11657,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D22" s="3">
         <v>67</v>
@@ -11669,7 +11682,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M22" s="3">
         <v>9</v>
@@ -11694,7 +11707,7 @@
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X22" s="3">
         <v>2</v>
@@ -11704,7 +11717,7 @@
       </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB22" s="3">
         <v>12</v>
@@ -11729,10 +11742,10 @@
       </c>
       <c r="AK22" s="2"/>
       <c r="AL22" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM22" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN22" s="3">
         <v>44</v>
@@ -11763,7 +11776,7 @@
       </c>
       <c r="AY22" s="2"/>
       <c r="AZ22" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA22" s="3">
         <v>35</v>
@@ -11791,10 +11804,10 @@
         <v>24</v>
       </c>
       <c r="BJ22" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK22" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL22" s="3">
         <v>3</v>
@@ -12138,7 +12151,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>7</v>
       </c>
@@ -12146,7 +12159,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D23" s="3">
         <v>70</v>
@@ -12171,7 +12184,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M23" s="3">
         <v>11</v>
@@ -12196,7 +12209,7 @@
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X23" s="3">
         <v>6</v>
@@ -12206,7 +12219,7 @@
       </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB23" s="3">
         <v>11</v>
@@ -12231,10 +12244,10 @@
       </c>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM23" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN23" s="3">
         <v>46</v>
@@ -12265,7 +12278,7 @@
       </c>
       <c r="AY23" s="2"/>
       <c r="AZ23" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA23" s="3">
         <v>37</v>
@@ -12293,10 +12306,10 @@
         <v>24</v>
       </c>
       <c r="BJ23" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK23" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL23" s="3">
         <v>5</v>
@@ -12640,7 +12653,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>8</v>
       </c>
@@ -12648,7 +12661,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D24" s="3">
         <v>79</v>
@@ -12673,7 +12686,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M24" s="3">
         <v>10</v>
@@ -12698,7 +12711,7 @@
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X24" s="3">
         <v>3</v>
@@ -12708,7 +12721,7 @@
       </c>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB24" s="3">
         <v>11</v>
@@ -12733,10 +12746,10 @@
       </c>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM24" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN24" s="3">
         <v>48</v>
@@ -12767,7 +12780,7 @@
       </c>
       <c r="AY24" s="2"/>
       <c r="AZ24" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA24" s="3">
         <v>34</v>
@@ -12795,10 +12808,10 @@
         <v>24</v>
       </c>
       <c r="BJ24" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK24" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL24" s="3">
         <v>5</v>
@@ -13142,7 +13155,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>10</v>
       </c>
@@ -13150,7 +13163,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D25" s="3">
         <v>73</v>
@@ -13175,7 +13188,7 @@
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M25" s="3">
         <v>14</v>
@@ -13200,7 +13213,7 @@
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X25" s="3">
         <v>5</v>
@@ -13210,7 +13223,7 @@
       </c>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB25" s="3">
         <v>13</v>
@@ -13235,10 +13248,10 @@
       </c>
       <c r="AK25" s="2"/>
       <c r="AL25" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM25" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN25" s="3">
         <v>32</v>
@@ -13269,7 +13282,7 @@
       </c>
       <c r="AY25" s="2"/>
       <c r="AZ25" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA25" s="3">
         <v>41</v>
@@ -13297,10 +13310,10 @@
         <v>24</v>
       </c>
       <c r="BJ25" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK25" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL25" s="3">
         <v>3</v>
@@ -13642,7 +13655,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>11</v>
       </c>
@@ -13650,7 +13663,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D26" s="3">
         <v>71</v>
@@ -13675,7 +13688,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M26" s="3">
         <v>9</v>
@@ -13700,7 +13713,7 @@
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X26" s="3">
         <v>7</v>
@@ -13710,7 +13723,7 @@
       </c>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB26" s="3">
         <v>8</v>
@@ -13735,10 +13748,10 @@
       </c>
       <c r="AK26" s="2"/>
       <c r="AL26" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM26" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN26" s="3">
         <v>61</v>
@@ -13769,7 +13782,7 @@
       </c>
       <c r="AY26" s="2"/>
       <c r="AZ26" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA26" s="3">
         <v>44</v>
@@ -13797,10 +13810,10 @@
         <v>23</v>
       </c>
       <c r="BJ26" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK26" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL26" s="3">
         <v>9</v>
@@ -14144,7 +14157,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>12</v>
       </c>
@@ -14152,7 +14165,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D27" s="3">
         <v>68</v>
@@ -14177,7 +14190,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M27" s="3">
         <v>14</v>
@@ -14202,7 +14215,7 @@
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X27" s="3">
         <v>4</v>
@@ -14212,7 +14225,7 @@
       </c>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB27" s="3">
         <v>13</v>
@@ -14237,10 +14250,10 @@
       </c>
       <c r="AK27" s="2"/>
       <c r="AL27" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM27" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN27" s="3">
         <v>32</v>
@@ -14271,7 +14284,7 @@
       </c>
       <c r="AY27" s="2"/>
       <c r="AZ27" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA27" s="3">
         <v>33</v>
@@ -14299,10 +14312,10 @@
         <v>24</v>
       </c>
       <c r="BJ27" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK27" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL27" s="3">
         <v>7</v>
@@ -14646,7 +14659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>13</v>
       </c>
@@ -14654,7 +14667,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D28" s="3">
         <v>73</v>
@@ -14679,7 +14692,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M28" s="3">
         <v>10</v>
@@ -14704,7 +14717,7 @@
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X28" s="3">
         <v>5</v>
@@ -14714,7 +14727,7 @@
       </c>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB28" s="3">
         <v>10</v>
@@ -14739,10 +14752,10 @@
       </c>
       <c r="AK28" s="2"/>
       <c r="AL28" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM28" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN28" s="3">
         <v>30</v>
@@ -14773,7 +14786,7 @@
       </c>
       <c r="AY28" s="2"/>
       <c r="AZ28" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA28" s="3">
         <v>43</v>
@@ -14801,10 +14814,10 @@
         <v>24</v>
       </c>
       <c r="BJ28" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK28" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL28" s="3">
         <v>6</v>
@@ -15130,7 +15143,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>17</v>
       </c>
@@ -15138,7 +15151,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D29" s="3">
         <v>68</v>
@@ -15163,7 +15176,7 @@
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M29" s="3">
         <v>9</v>
@@ -15188,7 +15201,7 @@
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X29" s="3">
         <v>4</v>
@@ -15198,7 +15211,7 @@
       </c>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB29" s="3">
         <v>12</v>
@@ -15223,10 +15236,10 @@
       </c>
       <c r="AK29" s="2"/>
       <c r="AL29" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM29" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN29" s="3">
         <v>38</v>
@@ -15257,7 +15270,7 @@
       </c>
       <c r="AY29" s="2"/>
       <c r="AZ29" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA29" s="3">
         <v>45</v>
@@ -15285,10 +15298,10 @@
         <v>24</v>
       </c>
       <c r="BJ29" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK29" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BL29" s="3">
         <v>8</v>
@@ -15630,7 +15643,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>18</v>
       </c>
@@ -15638,7 +15651,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D30" s="3">
         <v>71</v>
@@ -15663,7 +15676,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M30" s="3">
         <v>14</v>
@@ -15688,7 +15701,7 @@
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X30" s="3">
         <v>3</v>
@@ -15698,7 +15711,7 @@
       </c>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB30" s="3">
         <v>8</v>
@@ -15723,10 +15736,10 @@
       </c>
       <c r="AK30" s="2"/>
       <c r="AL30" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM30" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN30" s="3">
         <v>50</v>
@@ -15757,7 +15770,7 @@
       </c>
       <c r="AY30" s="2"/>
       <c r="AZ30" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA30" s="3">
         <v>28</v>
@@ -15785,10 +15798,10 @@
         <v>24</v>
       </c>
       <c r="BJ30" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK30" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BL30" s="3">
         <v>10</v>
@@ -16132,7 +16145,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>20</v>
       </c>
@@ -16140,7 +16153,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D31" s="3">
         <v>67</v>
@@ -16165,7 +16178,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M31" s="3">
         <v>12</v>
@@ -16190,7 +16203,7 @@
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X31" s="3">
         <v>2</v>
@@ -16200,7 +16213,7 @@
       </c>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB31" s="3">
         <v>13</v>
@@ -16225,10 +16238,10 @@
       </c>
       <c r="AK31" s="2"/>
       <c r="AL31" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM31" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN31" s="3">
         <v>44</v>
@@ -16259,7 +16272,7 @@
       </c>
       <c r="AY31" s="2"/>
       <c r="AZ31" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA31" s="3">
         <v>38</v>
@@ -16287,10 +16300,10 @@
         <v>23</v>
       </c>
       <c r="BJ31" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK31" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BL31" s="3">
         <v>5</v>
@@ -16630,7 +16643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>23</v>
       </c>
@@ -16638,7 +16651,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D32" s="3">
         <v>71</v>
@@ -16663,7 +16676,7 @@
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M32" s="3">
         <v>5</v>
@@ -16688,7 +16701,7 @@
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
@@ -16698,7 +16711,7 @@
       </c>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB32" s="3">
         <v>8</v>
@@ -16723,10 +16736,10 @@
       </c>
       <c r="AK32" s="2"/>
       <c r="AL32" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM32" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN32" s="3">
         <v>49</v>
@@ -16757,7 +16770,7 @@
       </c>
       <c r="AY32" s="2"/>
       <c r="AZ32" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA32" s="3">
         <v>29</v>
@@ -16785,10 +16798,10 @@
         <v>24</v>
       </c>
       <c r="BJ32" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK32" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BL32" s="3">
         <v>8</v>
@@ -17126,7 +17139,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>26</v>
       </c>
@@ -17134,7 +17147,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D33" s="3">
         <v>72</v>
@@ -17159,7 +17172,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M33" s="3">
         <v>14</v>
@@ -17184,7 +17197,7 @@
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X33" s="3">
         <v>7</v>
@@ -17194,7 +17207,7 @@
       </c>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB33" s="3">
         <v>12</v>
@@ -17219,10 +17232,10 @@
       </c>
       <c r="AK33" s="2"/>
       <c r="AL33" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM33" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN33" s="3">
         <v>74</v>
@@ -17253,7 +17266,7 @@
       </c>
       <c r="AY33" s="2"/>
       <c r="AZ33" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA33" s="3">
         <v>38</v>
@@ -17281,10 +17294,10 @@
         <v>24</v>
       </c>
       <c r="BJ33" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK33" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL33" s="3">
         <v>0</v>
@@ -17624,7 +17637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>27</v>
       </c>
@@ -17632,7 +17645,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D34" s="3">
         <v>76</v>
@@ -17657,7 +17670,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M34" s="3">
         <v>10</v>
@@ -17682,7 +17695,7 @@
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X34" s="3">
         <v>7</v>
@@ -17692,7 +17705,7 @@
       </c>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB34" s="3">
         <v>13</v>
@@ -17717,10 +17730,10 @@
       </c>
       <c r="AK34" s="2"/>
       <c r="AL34" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM34" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN34" s="3">
         <v>33</v>
@@ -17751,7 +17764,7 @@
       </c>
       <c r="AY34" s="2"/>
       <c r="AZ34" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA34" s="3">
         <v>35</v>
@@ -17779,10 +17792,10 @@
         <v>22</v>
       </c>
       <c r="BJ34" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK34" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL34" s="3">
         <v>3</v>
@@ -18124,7 +18137,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>30</v>
       </c>
@@ -18132,7 +18145,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D35" s="3">
         <v>80</v>
@@ -18157,7 +18170,7 @@
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M35" s="3">
         <v>11</v>
@@ -18182,7 +18195,7 @@
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X35" s="3">
         <v>10</v>
@@ -18192,7 +18205,7 @@
       </c>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB35" s="3">
         <v>12</v>
@@ -18217,10 +18230,10 @@
       </c>
       <c r="AK35" s="2"/>
       <c r="AL35" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM35" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN35" s="3">
         <v>52</v>
@@ -18251,7 +18264,7 @@
       </c>
       <c r="AY35" s="2"/>
       <c r="AZ35" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA35" s="3">
         <v>37</v>
@@ -18279,10 +18292,10 @@
         <v>24</v>
       </c>
       <c r="BJ35" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK35" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL35" s="3">
         <v>10</v>
@@ -18626,7 +18639,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>31</v>
       </c>
@@ -18634,7 +18647,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D36" s="3">
         <v>71</v>
@@ -18659,7 +18672,7 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M36" s="3">
         <v>12</v>
@@ -18684,7 +18697,7 @@
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X36" s="3">
         <v>7</v>
@@ -18694,7 +18707,7 @@
       </c>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB36" s="3">
         <v>14</v>
@@ -18719,10 +18732,10 @@
       </c>
       <c r="AK36" s="2"/>
       <c r="AL36" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM36" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN36" s="3">
         <v>31</v>
@@ -18753,7 +18766,7 @@
       </c>
       <c r="AY36" s="2"/>
       <c r="AZ36" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA36" s="3">
         <v>40</v>
@@ -18781,10 +18794,10 @@
         <v>24</v>
       </c>
       <c r="BJ36" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK36" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL36" s="3">
         <v>7</v>
@@ -19128,7 +19141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>32</v>
       </c>
@@ -19136,7 +19149,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D37" s="3">
         <v>72</v>
@@ -19161,7 +19174,7 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M37" s="3">
         <v>10</v>
@@ -19186,7 +19199,7 @@
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X37" s="3">
         <v>7</v>
@@ -19196,7 +19209,7 @@
       </c>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB37" s="3">
         <v>10</v>
@@ -19221,10 +19234,10 @@
       </c>
       <c r="AK37" s="2"/>
       <c r="AL37" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM37" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN37" s="3">
         <v>42</v>
@@ -19255,7 +19268,7 @@
       </c>
       <c r="AY37" s="2"/>
       <c r="AZ37" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA37" s="3">
         <v>33</v>
@@ -19283,10 +19296,10 @@
         <v>24</v>
       </c>
       <c r="BJ37" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK37" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL37" s="3">
         <v>7</v>
@@ -19630,7 +19643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -19638,7 +19651,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D38" s="3">
         <v>75</v>
@@ -19663,7 +19676,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M38" s="3">
         <v>12</v>
@@ -19688,7 +19701,7 @@
       </c>
       <c r="V38" s="2"/>
       <c r="W38" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X38" s="3">
         <v>6</v>
@@ -19698,7 +19711,7 @@
       </c>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB38" s="3">
         <v>9</v>
@@ -19723,10 +19736,10 @@
       </c>
       <c r="AK38" s="2"/>
       <c r="AL38" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM38" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN38" s="3">
         <v>47</v>
@@ -19757,7 +19770,7 @@
       </c>
       <c r="AY38" s="2"/>
       <c r="AZ38" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA38" s="3">
         <v>42</v>
@@ -19785,10 +19798,10 @@
         <v>23</v>
       </c>
       <c r="BJ38" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK38" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL38" s="3">
         <v>3</v>
@@ -20132,7 +20145,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -20140,7 +20153,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D39" s="3">
         <v>66</v>
@@ -20165,7 +20178,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M39" s="3">
         <v>10</v>
@@ -20190,7 +20203,7 @@
       </c>
       <c r="V39" s="2"/>
       <c r="W39" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X39" s="3">
         <v>5</v>
@@ -20200,7 +20213,7 @@
       </c>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB39" s="3">
         <v>13</v>
@@ -20225,10 +20238,10 @@
       </c>
       <c r="AK39" s="2"/>
       <c r="AL39" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM39" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN39" s="3">
         <v>31</v>
@@ -20259,7 +20272,7 @@
       </c>
       <c r="AY39" s="2"/>
       <c r="AZ39" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA39" s="3">
         <v>43</v>
@@ -20287,10 +20300,10 @@
         <v>24</v>
       </c>
       <c r="BJ39" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK39" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL39" s="3">
         <v>9</v>
@@ -20634,7 +20647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>40</v>
       </c>
@@ -20642,7 +20655,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D40" s="3">
         <v>65</v>
@@ -20667,7 +20680,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M40" s="3">
         <v>13</v>
@@ -20692,7 +20705,7 @@
       </c>
       <c r="V40" s="2"/>
       <c r="W40" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X40" s="3">
         <v>7</v>
@@ -20702,7 +20715,7 @@
       </c>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB40" s="3">
         <v>13</v>
@@ -20727,10 +20740,10 @@
       </c>
       <c r="AK40" s="2"/>
       <c r="AL40" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM40" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN40" s="3">
         <v>46</v>
@@ -20761,7 +20774,7 @@
       </c>
       <c r="AY40" s="2"/>
       <c r="AZ40" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA40" s="3">
         <v>40</v>
@@ -20789,10 +20802,10 @@
         <v>24</v>
       </c>
       <c r="BJ40" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK40" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL40" s="3">
         <v>7</v>
@@ -21134,7 +21147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>41</v>
       </c>
@@ -21142,7 +21155,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D41" s="3">
         <v>70</v>
@@ -21167,7 +21180,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M41" s="3">
         <v>10</v>
@@ -21192,7 +21205,7 @@
       </c>
       <c r="V41" s="2"/>
       <c r="W41" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X41" s="3">
         <v>7</v>
@@ -21202,7 +21215,7 @@
       </c>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB41" s="3">
         <v>12</v>
@@ -21227,10 +21240,10 @@
       </c>
       <c r="AK41" s="2"/>
       <c r="AL41" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM41" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN41" s="3">
         <v>71</v>
@@ -21261,7 +21274,7 @@
       </c>
       <c r="AY41" s="2"/>
       <c r="AZ41" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA41" s="3">
         <v>34</v>
@@ -21289,10 +21302,10 @@
         <v>24</v>
       </c>
       <c r="BJ41" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK41" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL41" s="3">
         <v>6</v>
@@ -21636,7 +21649,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>48</v>
       </c>
@@ -21644,7 +21657,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D42" s="3">
         <v>70</v>
@@ -21669,7 +21682,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M42" s="3">
         <v>9</v>
@@ -21694,7 +21707,7 @@
       </c>
       <c r="V42" s="2"/>
       <c r="W42" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X42" s="3">
         <v>5</v>
@@ -21704,7 +21717,7 @@
       </c>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB42" s="3">
         <v>14</v>
@@ -21729,10 +21742,10 @@
       </c>
       <c r="AK42" s="2"/>
       <c r="AL42" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM42" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN42" s="3">
         <v>33</v>
@@ -21763,7 +21776,7 @@
       </c>
       <c r="AY42" s="2"/>
       <c r="AZ42" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA42" s="3">
         <v>40</v>
@@ -21791,10 +21804,10 @@
         <v>24</v>
       </c>
       <c r="BJ42" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK42" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL42" s="3">
         <v>5</v>
@@ -22138,7 +22151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>50</v>
       </c>
@@ -22146,7 +22159,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D43" s="3">
         <v>73</v>
@@ -22171,7 +22184,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M43" s="3">
         <v>6</v>
@@ -22196,7 +22209,7 @@
       </c>
       <c r="V43" s="2"/>
       <c r="W43" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X43" s="3">
         <v>3</v>
@@ -22206,7 +22219,7 @@
       </c>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB43" s="3">
         <v>9</v>
@@ -22231,10 +22244,10 @@
       </c>
       <c r="AK43" s="2"/>
       <c r="AL43" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM43" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN43" s="3">
         <v>79</v>
@@ -22265,7 +22278,7 @@
       </c>
       <c r="AY43" s="2"/>
       <c r="AZ43" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA43" s="3">
         <v>41</v>
@@ -22293,10 +22306,10 @@
         <v>24</v>
       </c>
       <c r="BJ43" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK43" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL43" s="3">
         <v>5</v>
@@ -22640,7 +22653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>53</v>
       </c>
@@ -22648,7 +22661,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D44" s="3">
         <v>77</v>
@@ -22673,7 +22686,7 @@
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M44" s="3">
         <v>10</v>
@@ -22698,7 +22711,7 @@
       </c>
       <c r="V44" s="2"/>
       <c r="W44" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X44" s="3">
         <v>2</v>
@@ -22708,7 +22721,7 @@
       </c>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB44" s="3">
         <v>6</v>
@@ -22733,10 +22746,10 @@
       </c>
       <c r="AK44" s="2"/>
       <c r="AL44" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM44" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN44" s="3">
         <v>36</v>
@@ -22767,7 +22780,7 @@
       </c>
       <c r="AY44" s="2"/>
       <c r="AZ44" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA44" s="3">
         <v>33</v>
@@ -22795,10 +22808,10 @@
         <v>24</v>
       </c>
       <c r="BJ44" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK44" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL44" s="3">
         <v>10</v>
@@ -23142,7 +23155,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:180" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:180" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>55</v>
       </c>
@@ -23150,7 +23163,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D45" s="3">
         <v>68</v>
@@ -23175,7 +23188,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M45" s="3">
         <v>10</v>
@@ -23200,7 +23213,7 @@
       </c>
       <c r="V45" s="2"/>
       <c r="W45" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -23210,7 +23223,7 @@
       </c>
       <c r="Z45" s="2"/>
       <c r="AA45" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB45" s="3">
         <v>10</v>
@@ -23235,10 +23248,10 @@
       </c>
       <c r="AK45" s="2"/>
       <c r="AL45" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM45" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AN45" s="3">
         <v>85</v>
@@ -23269,7 +23282,7 @@
       </c>
       <c r="AY45" s="2"/>
       <c r="AZ45" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA45" s="3">
         <v>36</v>
@@ -23297,10 +23310,10 @@
         <v>22</v>
       </c>
       <c r="BJ45" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BK45" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BL45" s="3">
         <v>5</v>
